--- a/Data validation.xlsx
+++ b/Data validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neha Singh\Documents\Projects\excel for data analysis\Data Analysis with Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1ECDA-59CD-4911-A5F3-10D706BB912B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D41DD8-18A6-444E-BCF0-06F3BDF9BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{53FF5BE5-52BD-42D5-87D2-1E89653282A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{53FF5BE5-52BD-42D5-87D2-1E89653282A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,31 +20,25 @@
     <definedName name="Bangalore">Sheet2!$B$2:$B$6</definedName>
     <definedName name="Blr">#REF!</definedName>
     <definedName name="Delhi">Sheet2!$B$11:$B$14</definedName>
+    <definedName name="DelhiNorth">Sheet2!$K$13:$K$15</definedName>
     <definedName name="dl">#REF!</definedName>
     <definedName name="kl">#REF!</definedName>
     <definedName name="Kolkata">Sheet2!$B$7:$B$10</definedName>
     <definedName name="Maharashtra">Sheet2!$B$15:$B$17</definedName>
     <definedName name="mh">#REF!</definedName>
+    <definedName name="Mumbai">Sheet2!$K$8:$K$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -82,33 +76,9 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>Marathahalli</t>
-  </si>
-  <si>
-    <t>Bellandur</t>
-  </si>
-  <si>
-    <t>BTM</t>
-  </si>
-  <si>
-    <t>Whitefield</t>
-  </si>
-  <si>
     <t>Kolkata</t>
   </si>
   <si>
-    <t>Park Street</t>
-  </si>
-  <si>
-    <t>Park Circus</t>
-  </si>
-  <si>
-    <t>Hestings</t>
-  </si>
-  <si>
-    <t>Salt Lake</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
@@ -118,28 +88,37 @@
     <t>Karolbagh</t>
   </si>
   <si>
-    <t>Lakshminagar</t>
-  </si>
-  <si>
     <t>Rajib Chowk</t>
   </si>
   <si>
     <t>Maharashtra</t>
   </si>
   <si>
-    <t>Pune</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Nasik</t>
-  </si>
-  <si>
     <t>Place</t>
   </si>
   <si>
-    <t>Koramangla</t>
+    <t>thane</t>
+  </si>
+  <si>
+    <t>goregaon</t>
+  </si>
+  <si>
+    <t>new bombay</t>
+  </si>
+  <si>
+    <t>colaba</t>
+  </si>
+  <si>
+    <t>marinelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai </t>
+  </si>
+  <si>
+    <t>DelhiNorth</t>
   </si>
 </sst>
 </file>
@@ -269,16 +248,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,6 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,7 +591,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,13 +733,13 @@
       <formula1>32883</formula1>
       <formula2>36159</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14" xr:uid="{A6CFF684-230A-435F-A401-1045385FA7C3}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14 C2" xr:uid="{A6CFF684-230A-435F-A401-1045385FA7C3}">
       <formula1>ISNUMBER(FIND("@",C2:C14))</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14" xr:uid="{4D1F7284-6162-4E7B-BB9B-C07A07344C91}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D14 D2" xr:uid="{4D1F7284-6162-4E7B-BB9B-C07A07344C91}">
       <formula1>50000</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14" xr:uid="{BD3D1F4F-AF43-4F19-B619-129032F45FDE}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E14 E2" xr:uid="{BD3D1F4F-AF43-4F19-B619-129032F45FDE}">
       <formula1>100</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -769,168 +751,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C04847-0659-4268-8EB3-7F0FBFA0651F}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" customWidth="1"/>
     <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
       <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5"/>
+      <c r="J13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J13:J15"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{45C120EB-E833-4272-8EA5-B7EC263E167C}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8 F2" xr:uid="{45C120EB-E833-4272-8EA5-B7EC263E167C}">
       <formula1>$L$1:$L$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{EE46F37F-2933-4246-AAE1-830924449C9C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G8" xr:uid="{EE46F37F-2933-4246-AAE1-830924449C9C}">
       <formula1>INDIRECT(F2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11" xr:uid="{3D87732A-444E-485C-9CE8-F9114909D3C1}">
+      <formula1>$N$3:$N$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N11" xr:uid="{72BF0F30-9C2E-4510-BDF6-E1B0FB8BFEDA}">
+      <formula1>INDIRECT(M11)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
